--- a/AI面试.xlsx
+++ b/AI面试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18468" windowHeight="9420" activeTab="2"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
   <si>
     <t>问题</t>
   </si>
@@ -104,6 +104,24 @@
   </si>
   <si>
     <t>线性回归的损失函数</t>
+  </si>
+  <si>
+    <t>随机梯度下降SGD</t>
+  </si>
+  <si>
+    <t>每一次只使用单个样本更新θ，参数更新最快，因为每遍历一个数据都会更新参数，由于没有遍历所有数据，路线不一定最优，整体趋势往最优方向进行，有一定概率跳出局部最优解，而BGD会直接陷入局部最优解。</t>
+  </si>
+  <si>
+    <t>批量梯度下降BGD</t>
+  </si>
+  <si>
+    <t>每次使用所有样本更新θ，迭代步骤上可以快速接近最优解，但时间消耗最大，因为每次更新都要遍历所有数据</t>
+  </si>
+  <si>
+    <t>小批量梯度下降MBGD</t>
+  </si>
+  <si>
+    <t>每次使用小批量样本，保证参数更新速度的前提下，让迭代步骤也少，样本太多，一次性读取不完</t>
   </si>
   <si>
     <t>git工作区</t>
@@ -1157,10 +1175,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D66"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
@@ -1290,9 +1308,307 @@
         <v>14</v>
       </c>
     </row>
+    <row r="11" ht="72" spans="1:4">
+      <c r="A11" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" ht="43.2" spans="1:4">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" ht="28.8" spans="1:4">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="4:4">
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="4:4">
+      <c r="D15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="4:4">
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4">
+      <c r="D17" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="4:4">
+      <c r="D18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="4:4">
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="4:4">
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="4:4">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22" spans="4:4">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="4:4">
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24" spans="4:4">
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="4:4">
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="4:4">
+      <c r="D26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="4:4">
+      <c r="D27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="4:4">
+      <c r="D28" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="4:4">
+      <c r="D29" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="4:4">
+      <c r="D30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="4:4">
+      <c r="D31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="4:4">
+      <c r="D32" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="4:4">
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="4:4">
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35" spans="4:4">
+      <c r="D35" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36" spans="4:4">
+      <c r="D36" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37" spans="4:4">
+      <c r="D37" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="4:4">
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39" spans="4:4">
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="4:4">
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="4:4">
+      <c r="D41" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42" spans="4:4">
+      <c r="D42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43" spans="4:4">
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="4:4">
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="4:4">
+      <c r="D45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46" spans="4:4">
+      <c r="D46" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="4:4">
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="48" spans="4:4">
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="49" spans="4:4">
+      <c r="D49" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="50" spans="4:4">
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="51" spans="4:4">
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="4:4">
+      <c r="D53" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="55" spans="4:4">
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="4:4">
+      <c r="D56" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="4:4">
+      <c r="D57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="4:4">
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="4:4">
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="60" spans="4:4">
+      <c r="D60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="4:4">
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="63" spans="4:4">
+      <c r="D63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="64" spans="4:4">
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="66" spans="4:4">
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D10 D2:D4 D5:D7 D8:D9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 D5:D7 D8:D9 D10:D66">
       <formula1>"interview,concept"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1306,7 +1622,7 @@
   <sheetPr/>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -1332,109 +1648,109 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:3">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:4">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C4" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" ht="129.6" spans="1:3">
       <c r="A6" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" ht="86.4" spans="1:3">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
@@ -1459,8 +1775,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1472,15 +1788,15 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D2" s="1">
         <v>45096</v>
@@ -1488,13 +1804,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>53</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D3" s="1">
         <v>45096</v>
@@ -1502,13 +1818,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="C4" t="s">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" s="1">
         <v>45096</v>
@@ -1516,20 +1832,20 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
     </row>
     <row r="6" spans="3:3">
       <c r="C6" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="7" spans="3:3">
       <c r="C7" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
   </sheetData>

--- a/AI面试.xlsx
+++ b/AI面试.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="26148" windowHeight="14340" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="100">
   <si>
     <t>问题</t>
   </si>
@@ -28,6 +28,12 @@
   </si>
   <si>
     <t>类别</t>
+  </si>
+  <si>
+    <t>例子</t>
+  </si>
+  <si>
+    <t>推导</t>
   </si>
   <si>
     <t>监督学习和非监督学习？</t>
@@ -44,15 +50,93 @@
     <t>interview</t>
   </si>
   <si>
+    <t>分类算法指标</t>
+  </si>
+  <si>
+    <r>
+      <t>精准率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">(Precision)：在所有被预测为正的样本中实际为正的样本的概率，精准率=TP/(TP+FP)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>召回率</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：在实际为正的样本中被预测为正样本的概率
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>准确率(Accuracy)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">：提取的正确样本数/总样本数,准确率=(TP+TN)/(TP+TN+FP+FN)
+</t>
+    </r>
+  </si>
+  <si>
+    <t>roc曲线是什么</t>
+  </si>
+  <si>
+    <t>ROC曲线是接受者操作特征曲线（Receiver Operating Characteristic curve）的简称，主要用于评估二分类模型的性能，描述模型在不同阈值下真正例率（True Positive Rate）和假正例率（False Positive Rate）之间的关系。ROC曲线可以展示不同模型的性能，帮助选择最佳的分类器。曲线下面积（Area Under the Curve，AUC）越大，说明模型的性能越好。</t>
+  </si>
+  <si>
+    <t>concept</t>
+  </si>
+  <si>
+    <t>roc原理</t>
+  </si>
+  <si>
+    <t>ROC曲线中的主要两个指标就是真正率和假正率，横坐标为假正率（FPR），纵坐标为真正率（TPR），ROC曲线是通过遍历所有阈值来绘制整条曲线的。如果我们不断的遍历所有阈值，预测的正样本和负样本是在不断变化的。曲线本身是不会变的，ROC曲线越陡），那么模型的性能就越好。</t>
+  </si>
+  <si>
     <t>常用的分类器有哪些，简述其原理？</t>
   </si>
   <si>
     <t xml:space="preserve">线性分类器：Logistic归回 y=sigmoid(wx+b)
 传统方式：特征描述和检测
-KNN、k最邻近，判断图像与各个类别的距离
-SVM、选项定特征、SVM算法输出一个最优化的分隔超平面（分类面）。
-BPNN，全连接网络，计算量巨大
-CNN，卷积神经网络
+KNN：k最邻近，判断图像与各个类别的距离
+SVM：选项定特征、SVM算法输出一个最优化的分隔超平面（分类面）。
+BPNN：全连接网络，计算量巨大
+CNN：卷积神经网络
 </t>
   </si>
   <si>
@@ -70,9 +154,6 @@
 j(θ)=1/2(求和m,i=1)(hθ(xi)-yi)^2</t>
   </si>
   <si>
-    <t>concept</t>
-  </si>
-  <si>
     <t>什么是梯度下降？（Gradient Descent, GD）</t>
   </si>
   <si>
@@ -122,6 +203,90 @@
   </si>
   <si>
     <t>每次使用小批量样本，保证参数更新速度的前提下，让迭代步骤也少，样本太多，一次性读取不完</t>
+  </si>
+  <si>
+    <t>odds机率</t>
+  </si>
+  <si>
+    <t>发生概率/不发生概率，（0，正无穷），分类的概率P（0，1），直接将模型投射到概率P，事件有可能在线的两侧，超过范围。
+因为对数值域是（-无穷，+无穷)，定义域是(0,+无穷)，将回归模型投射到对数函数上，求出sgmoid函数</t>
+  </si>
+  <si>
+    <t>sgmoid函数是什么？</t>
+  </si>
+  <si>
+    <t>p=1/(1+e(-θTx),T表示转置
+g(z)=</t>
+  </si>
+  <si>
+    <t>Logistic回归算法</t>
+  </si>
+  <si>
+    <t>在逻辑回归中，我们通过建立一个描述数据和标签之间关系的模型来预测数据的分类结果，通常使用sigmoid函数将模型的输出压缩到0和1之间，表示概率值</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+sigmoid函数将模型的输出压缩到0和1之间，表示概率值，因为对数值域是（-无穷，+无穷)，定义域是(0,+无穷)，将回归模型投射到对数函数上，求出sgmoid函数
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>逻辑回归对数似然函数</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>逻辑回归的极大似然函数的随机梯度</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+</t>
+  </si>
+  <si>
+    <t>逻辑回归的θ求解</t>
+  </si>
+  <si>
+    <t>θj=θj+a(yi-hθ(xi))xj(i)，xj是第j个x</t>
+  </si>
+  <si>
+    <t>逻辑回归的目标函数</t>
+  </si>
+  <si>
+    <t>似然函数乘以-1就是目标函数，因为似然函数最大模型最优，目标函数最小模型最优</t>
+  </si>
+  <si>
+    <t>Softmax回归算法</t>
+  </si>
+  <si>
+    <t xml:space="preserve">逻辑回归的一般化，用于k分类问题，每个类都有一个θ
+</t>
+  </si>
+  <si>
+    <t>什么是似然函数？</t>
+  </si>
+  <si>
+    <t>似然函数是给定一组参数时，观测数据的概率密度函数。在统计学中，似然函数通常用于最大似然估计。通过找到最大似然估计值，可以找到最大的可能性，即最符合数据的模型参数。</t>
+  </si>
+  <si>
+    <t>假设有一个二元分类问题，数据集中包含了一些正例和负例。似然函数可以用来描述一个模型预测这些样本属于正例或负例的可能性大小。
+例如，在一个包含10个样本的数据集中，如果其中有7个样本是正例，3个样本是负例，那么这个模型对于这个样本集的似然函数可以表示为：
+L(θ|X) = (P)^7 * (1-P)^3
+其中，θ表示参数，X表示样本集。这个函数表示，如果我们将模型的参数设为θ，那么在这个样本集上，模型预测的概率与实际标签一致的概率就是 L(θ|X)。我们可以通过调整模型的参数，来使得这个概率最大化,取对数求导后为0.7</t>
+  </si>
+  <si>
+    <t>极大似然估计是什么？</t>
+  </si>
+  <si>
+    <t>假设一个模型，然后根据已知数据估计参数值，使得这些数据出现的概率最大化</t>
   </si>
   <si>
     <t>git工作区</t>
@@ -224,10 +389,16 @@
     <t>免费联系未接通被退豆</t>
   </si>
   <si>
+    <t>积分任务-从桌面打开很多次，任务还是去添加，不能领取</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  iOS从桌面打开是正式环境的,安卓从桌面打开是测试环境</t>
+  </si>
+  <si>
+    <t>dialog_type为0问题排查</t>
+  </si>
+  <si>
     <t>underway</t>
-  </si>
-  <si>
-    <t>wating</t>
   </si>
 </sst>
 </file>
@@ -240,8 +411,16 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -701,10 +880,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -713,34 +892,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -752,98 +928,101 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -853,8 +1032,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -915,6 +1100,407 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>248285</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>93980</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="文本框 2"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7365365" y="13444220"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>316865</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>322580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="309880" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="文本框 4"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7433945" y="13672820"/>
+          <a:ext cx="309880" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="none" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>800100</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3891915</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>998855</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" r:link="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7109460" y="14752320"/>
+          <a:ext cx="3899535" cy="876935"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>560705</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>116840</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="4405630" cy="273685"/>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="文本框 6"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7677785" y="11455400"/>
+          <a:ext cx="4405630" cy="273685"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>568960</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>518160</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="图片 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3" r:link="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2316480" y="18752820"/>
+          <a:ext cx="5369560" cy="419100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2409190</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>334645</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="图片 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5" r:link="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2278380" y="19385280"/>
+          <a:ext cx="2409190" cy="334645"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>1272540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1398905</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>495300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="图片 15"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7" r:link="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7269480" y="15902940"/>
+          <a:ext cx="1246505" cy="502920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>396240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>2816225</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>872490</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="图片 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9" r:link="rId10"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7216140" y="16306800"/>
+          <a:ext cx="2717165" cy="476250"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>556260</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>1021080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>3289300</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>2574925</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="图片 17"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11" r:link="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6865620" y="16931640"/>
+          <a:ext cx="3540760" cy="1553845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1175,21 +1761,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:F75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="5"/>
   <cols>
-    <col min="1" max="1" width="33" customWidth="1"/>
+    <col min="1" max="1" width="33.2222222222222" customWidth="1"/>
     <col min="2" max="2" width="48.2222222222222" customWidth="1"/>
     <col min="3" max="3" width="10.5555555555556" customWidth="1"/>
     <col min="4" max="4" width="11.7777777777778" customWidth="1"/>
+    <col min="5" max="5" width="65.4444444444444" customWidth="1"/>
+    <col min="6" max="6" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1202,217 +1790,306 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="2" ht="129.6" spans="1:4">
       <c r="A2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" ht="201.6" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" ht="100.8" spans="1:2">
       <c r="A3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" ht="115.2" spans="1:4">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" ht="86.4" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" ht="72" spans="1:4">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" ht="43.2" spans="1:4">
-      <c r="A5" t="s">
-        <v>12</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" ht="43.2" spans="1:4">
-      <c r="A6" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="6" ht="201.6" spans="1:4">
+      <c r="A6" t="s">
         <v>17</v>
       </c>
+      <c r="B6" s="3" t="s">
+        <v>18</v>
+      </c>
       <c r="D6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="43.2" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" ht="72" spans="1:4">
       <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="B7" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" ht="43.2" spans="1:4">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B8" t="s">
         <v>21</v>
       </c>
+      <c r="B8" s="3" t="s">
+        <v>22</v>
+      </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="9" ht="28.8" spans="1:4">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" s="2" t="s">
+    <row r="9" ht="43.2" spans="1:4">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" ht="43.2" spans="1:4">
       <c r="A10" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>27</v>
       </c>
       <c r="D10" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" ht="72" spans="1:4">
+    <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>27</v>
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>29</v>
       </c>
       <c r="D11" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" ht="43.2" spans="1:4">
+    <row r="12" ht="28.8" spans="1:4">
       <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="D12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="13" ht="28.8" spans="1:4">
+    <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>33</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="4:4">
+    <row r="14" ht="72" spans="1:4">
+      <c r="A14" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="4:4">
+    <row r="15" ht="43.2" spans="1:4">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="D15" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="4:4">
+    <row r="16" ht="28.8" spans="1:4">
+      <c r="A16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="D16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="4:4">
+    <row r="17" ht="72" spans="1:5">
+      <c r="A17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="D17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="4:4">
+      <c r="E17" s="2"/>
+    </row>
+    <row r="18" ht="28.8" spans="1:4">
+      <c r="A18" t="s">
+        <v>42</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>43</v>
+      </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="4:4">
+    <row r="19" ht="100.8" spans="1:5">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="4:4">
+      <c r="E19" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" ht="216" spans="1:5">
+      <c r="A20" t="s">
+        <v>42</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>47</v>
+      </c>
       <c r="D20" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="21" spans="4:4">
-      <c r="D21" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22" spans="4:4">
+      <c r="E20" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" ht="57.6" spans="1:2">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" ht="43.2" spans="1:4">
+      <c r="A22" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="D22" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="4:4">
+    <row r="23" spans="1:4">
+      <c r="A23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" t="s">
+        <v>54</v>
+      </c>
       <c r="D23" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="4:4">
+    <row r="24" ht="28.8" spans="1:4">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>56</v>
+      </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="4:4">
+    <row r="25" ht="43.2" spans="1:4">
+      <c r="A25" t="s">
+        <v>57</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>58</v>
+      </c>
       <c r="D25" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" ht="172.8" spans="1:5">
+      <c r="A26" t="s">
+        <v>59</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>60</v>
+      </c>
       <c r="D26" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="4:4">
+      <c r="E26" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="27" ht="28.8" spans="1:4">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>63</v>
+      </c>
       <c r="D27" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="28" spans="4:4">
-      <c r="D28" t="s">
         <v>14</v>
       </c>
     </row>
@@ -1606,14 +2283,60 @@
         <v>14</v>
       </c>
     </row>
+    <row r="67" spans="4:4">
+      <c r="D67" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="68" spans="4:4">
+      <c r="D68" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="69" spans="4:4">
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="4:4">
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="4:4">
+      <c r="D71" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="4:4">
+      <c r="D72" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="73" spans="4:4">
+      <c r="D73" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="4:4">
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="75" spans="4:4">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D4 D5:D7 D8:D9 D10:D66">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2 D3 D4 D5 D18 D19 D20 D27 D6:D7 D8:D10 D11:D12 D13:D17 D22:D23 D24:D26 D29:D32 D33:D75">
       <formula1>"interview,concept"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1648,109 +2371,109 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>64</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="3" ht="43.2" spans="1:3">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>68</v>
       </c>
       <c r="C3" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="4" ht="72" spans="1:4">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>69</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>70</v>
       </c>
       <c r="C4" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:2">
       <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>41</v>
+        <v>72</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="6" ht="129.6" spans="1:3">
       <c r="A6" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>43</v>
+        <v>74</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>75</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" ht="86.4" spans="1:3">
       <c r="A7" t="s">
-        <v>44</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>77</v>
       </c>
       <c r="C7" t="s">
-        <v>34</v>
+        <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>49</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>50</v>
+        <v>81</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>82</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" ht="28.8" spans="1:2">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>53</v>
+        <v>84</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>54</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>55</v>
+        <v>86</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>87</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1775,8 +2498,8 @@
   <sheetPr/>
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="6" outlineLevelCol="3"/>
@@ -1788,15 +2511,15 @@
   <sheetData>
     <row r="1" spans="4:4">
       <c r="D1" t="s">
-        <v>56</v>
+        <v>88</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>89</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D2" s="1">
         <v>45096</v>
@@ -1804,13 +2527,13 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D3" s="1">
         <v>45096</v>
@@ -1818,13 +2541,13 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="D4" s="1">
         <v>45096</v>
@@ -1832,20 +2555,32 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
       <c r="C5" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="6" spans="3:3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" ht="43.2" spans="1:4">
+      <c r="A6" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>97</v>
+      </c>
       <c r="C6" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="7" spans="3:3">
+        <v>90</v>
+      </c>
+      <c r="D6" s="1">
+        <v>45097</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
       <c r="C7" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
